--- a/Group5 Estimated Effort Iteration 4 Closeout.xlsx
+++ b/Group5 Estimated Effort Iteration 4 Closeout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kc.umkc.edu\kc-users\home\d\drm43b\My Documents\Assignments\CS 451R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donald\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91C46603-56BC-4D40-B28A-7FDFDFBB9ADD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2069C0-DAC7-40C9-8986-8C5200987EFF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group5_Estimated_Effort" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -800,7 +800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1202,6 +1202,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1697,30 +1706,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AE98"/>
+  <dimension ref="A2:AE97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I81" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="N81" sqref="N81"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="4" customWidth="1"/>
     <col min="10" max="12" width="9" style="4"/>
     <col min="13" max="15" width="9" style="6"/>
     <col min="16" max="31" width="9" style="4"/>
     <col min="32" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" ht="63.75">
+    <row r="2" spans="1:31" ht="66" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1746,7 +1755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="1" customFormat="1">
+    <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1797,7 +1806,7 @@
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
     </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" ht="31.5">
+    <row r="4" spans="1:31" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -1846,7 +1855,7 @@
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
     </row>
-    <row r="5" spans="1:31" s="1" customFormat="1">
+    <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>14</v>
       </c>
@@ -1881,7 +1890,7 @@
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>15</v>
       </c>
@@ -1918,7 +1927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="35" t="s">
@@ -1949,7 +1958,7 @@
       </c>
       <c r="P7" s="39"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="29" t="s">
         <v>20</v>
@@ -1981,7 +1990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="35" t="s">
@@ -2012,7 +2021,7 @@
       </c>
       <c r="P9" s="39"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="35" t="s">
@@ -2043,7 +2052,7 @@
       </c>
       <c r="P10" s="39"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="35" t="s">
@@ -2074,7 +2083,7 @@
       </c>
       <c r="P11" s="39"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="29" t="s">
         <v>25</v>
@@ -2106,7 +2115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="35" t="s">
@@ -2135,7 +2144,7 @@
       <c r="O13" s="39"/>
       <c r="P13" s="39"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="35" t="s">
@@ -2160,7 +2169,7 @@
       <c r="O14" s="39"/>
       <c r="P14" s="39"/>
     </row>
-    <row r="15" spans="1:31" ht="31.5">
+    <row r="15" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="28"/>
       <c r="C15" s="35" t="s">
@@ -2191,7 +2200,7 @@
       </c>
       <c r="P15" s="39"/>
     </row>
-    <row r="16" spans="1:31" ht="31.5">
+    <row r="16" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="35" t="s">
@@ -2222,7 +2231,7 @@
       </c>
       <c r="P16" s="39"/>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="35" t="s">
@@ -2247,7 +2256,7 @@
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="35" t="s">
@@ -2272,7 +2281,7 @@
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
     </row>
-    <row r="19" spans="1:31" ht="31.5">
+    <row r="19" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A19" s="42"/>
       <c r="B19" s="42"/>
       <c r="C19" s="43" t="s">
@@ -2297,7 +2306,7 @@
       <c r="O19" s="47"/>
       <c r="P19" s="47"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>38</v>
       </c>
@@ -2314,7 +2323,7 @@
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="34">
-        <f>SUM(H21:H30)</f>
+        <f>SUM(H21:H26)</f>
         <v>28</v>
       </c>
       <c r="J20" s="5"/>
@@ -2334,7 +2343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="1" customFormat="1">
+    <row r="21" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48"/>
       <c r="B21" s="53"/>
       <c r="C21" s="54" t="s">
@@ -2381,7 +2390,7 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
     </row>
-    <row r="22" spans="1:31" s="1" customFormat="1">
+    <row r="22" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="48"/>
       <c r="B22" s="53"/>
       <c r="C22" s="54" t="s">
@@ -2426,7 +2435,7 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
     </row>
-    <row r="23" spans="1:31" s="1" customFormat="1">
+    <row r="23" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="53"/>
       <c r="C23" s="54" t="s">
@@ -2443,7 +2452,7 @@
       </c>
       <c r="G23" s="58"/>
       <c r="H23" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="59"/>
       <c r="J23" s="5"/>
@@ -2453,7 +2462,9 @@
         <v>1</v>
       </c>
       <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
+      <c r="O23" s="60">
+        <v>1</v>
+      </c>
       <c r="P23" s="60"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -2471,7 +2482,7 @@
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
     </row>
-    <row r="24" spans="1:31" s="1" customFormat="1">
+    <row r="24" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48"/>
       <c r="B24" s="53"/>
       <c r="C24" s="54" t="s">
@@ -2520,7 +2531,7 @@
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="53"/>
       <c r="C25" s="54" t="s">
@@ -2537,15 +2548,17 @@
       </c>
       <c r="G25" s="58"/>
       <c r="H25" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="58"/>
-      <c r="M25" s="60"/>
+      <c r="M25" s="60">
+        <v>1</v>
+      </c>
       <c r="N25" s="60"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
     </row>
-    <row r="26" spans="1:31" ht="31.5">
+    <row r="26" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A26" s="48"/>
       <c r="B26" s="53"/>
       <c r="C26" s="54" t="s">
@@ -2562,15 +2575,17 @@
       </c>
       <c r="G26" s="58"/>
       <c r="H26" s="57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="58"/>
       <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
+      <c r="N26" s="60">
+        <v>2</v>
+      </c>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="48"/>
       <c r="B27" s="29" t="s">
         <v>49</v>
@@ -2602,7 +2617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="48"/>
       <c r="B28" s="53"/>
       <c r="C28" s="54" t="s">
@@ -2631,7 +2646,7 @@
       </c>
       <c r="P28" s="60"/>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="48"/>
       <c r="B29" s="62"/>
       <c r="C29" s="61" t="s">
@@ -2658,7 +2673,7 @@
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="48"/>
       <c r="B30" s="62"/>
       <c r="C30" s="54" t="s">
@@ -2687,7 +2702,7 @@
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="48"/>
       <c r="B31" s="66" t="s">
         <v>53</v>
@@ -2719,7 +2734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="48"/>
       <c r="B32" s="62"/>
       <c r="C32" s="54" t="s">
@@ -2748,7 +2763,7 @@
       <c r="O32" s="69"/>
       <c r="P32" s="69"/>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="62"/>
       <c r="C33" s="54" t="s">
@@ -2779,7 +2794,7 @@
       </c>
       <c r="P33" s="69"/>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="70" t="s">
         <v>56</v>
       </c>
@@ -2819,7 +2834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:31" s="1" customFormat="1">
+    <row r="35" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="70"/>
       <c r="B35" s="74"/>
       <c r="C35" s="35" t="s">
@@ -2868,7 +2883,7 @@
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="70"/>
       <c r="B36" s="74"/>
       <c r="C36" s="35" t="s">
@@ -2899,7 +2914,7 @@
       </c>
       <c r="P36" s="76"/>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="70"/>
       <c r="B37" s="74"/>
       <c r="C37" s="35" t="s">
@@ -2930,7 +2945,7 @@
       </c>
       <c r="P37" s="76"/>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="70"/>
       <c r="B38" s="29" t="s">
         <v>49</v>
@@ -2965,7 +2980,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="70"/>
       <c r="B39" s="74"/>
       <c r="C39" s="35" t="s">
@@ -2994,7 +3009,7 @@
       <c r="O39" s="76"/>
       <c r="P39" s="76"/>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="70"/>
       <c r="B40" s="74"/>
       <c r="C40" s="35" t="s">
@@ -3025,7 +3040,7 @@
       </c>
       <c r="P40" s="76"/>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="70"/>
       <c r="B41" s="74"/>
       <c r="C41" s="35" t="s">
@@ -3056,7 +3071,7 @@
       </c>
       <c r="P41" s="76"/>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="70"/>
       <c r="B42" s="74"/>
       <c r="C42" s="35" t="s">
@@ -3087,7 +3102,7 @@
       </c>
       <c r="P42" s="76"/>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="70"/>
       <c r="B43" s="74"/>
       <c r="C43" s="35" t="s">
@@ -3118,7 +3133,7 @@
       </c>
       <c r="P43" s="76"/>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="70"/>
       <c r="B44" s="74"/>
       <c r="C44" s="35" t="s">
@@ -3149,7 +3164,7 @@
       </c>
       <c r="P44" s="76"/>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="70"/>
       <c r="B45" s="74"/>
       <c r="C45" s="35" t="s">
@@ -3180,7 +3195,7 @@
       </c>
       <c r="P45" s="76"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="70"/>
       <c r="B46" s="29" t="s">
         <v>53</v>
@@ -3215,7 +3230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="70"/>
       <c r="B47" s="74"/>
       <c r="C47" s="35" t="s">
@@ -3246,7 +3261,7 @@
       </c>
       <c r="P47" s="76"/>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="70"/>
       <c r="B48" s="74"/>
       <c r="C48" s="35" t="s">
@@ -3277,7 +3292,7 @@
       </c>
       <c r="P48" s="76"/>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="70"/>
       <c r="B49" s="77"/>
       <c r="C49" s="43" t="s">
@@ -3308,7 +3323,7 @@
       </c>
       <c r="P49" s="79"/>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>73</v>
       </c>
@@ -3348,7 +3363,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:31" s="1" customFormat="1" ht="31.5">
+    <row r="51" spans="1:31" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A51" s="80"/>
       <c r="B51" s="81"/>
       <c r="C51" s="82" t="s">
@@ -3397,7 +3412,7 @@
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
     </row>
-    <row r="52" spans="1:31" ht="31.5">
+    <row r="52" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A52" s="48"/>
       <c r="B52" s="62"/>
       <c r="C52" s="61" t="s">
@@ -3424,7 +3439,7 @@
       <c r="O52" s="69"/>
       <c r="P52" s="69"/>
     </row>
-    <row r="53" spans="1:31" ht="31.5">
+    <row r="53" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
       <c r="B53" s="62"/>
       <c r="C53" s="61" t="s">
@@ -3453,7 +3468,7 @@
       </c>
       <c r="P53" s="69"/>
     </row>
-    <row r="54" spans="1:31" ht="31.5">
+    <row r="54" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
       <c r="B54" s="62"/>
       <c r="C54" s="61" t="s">
@@ -3480,7 +3495,7 @@
       <c r="O54" s="69"/>
       <c r="P54" s="69"/>
     </row>
-    <row r="55" spans="1:31" ht="31.5">
+    <row r="55" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
       <c r="B55" s="63"/>
       <c r="C55" s="91" t="s">
@@ -3511,7 +3526,7 @@
       </c>
       <c r="P55" s="94"/>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="29" t="s">
         <v>49</v>
@@ -3546,7 +3561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="31.5">
+    <row r="57" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
       <c r="B57" s="62"/>
       <c r="C57" s="61" t="s">
@@ -3573,7 +3588,7 @@
       <c r="O57" s="69"/>
       <c r="P57" s="69"/>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="48"/>
       <c r="B58" s="62"/>
       <c r="C58" s="61" t="s">
@@ -3600,7 +3615,7 @@
       <c r="O58" s="69"/>
       <c r="P58" s="69"/>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="48"/>
       <c r="B59" s="62"/>
       <c r="C59" s="61" t="s">
@@ -3625,7 +3640,7 @@
       <c r="O59" s="69"/>
       <c r="P59" s="69"/>
     </row>
-    <row r="60" spans="1:31" ht="31.5">
+    <row r="60" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
       <c r="B60" s="62"/>
       <c r="C60" s="61" t="s">
@@ -3650,7 +3665,7 @@
       <c r="O60" s="69"/>
       <c r="P60" s="69"/>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
       <c r="B61" s="62"/>
       <c r="C61" s="61" t="s">
@@ -3677,7 +3692,7 @@
       <c r="O61" s="69"/>
       <c r="P61" s="69"/>
     </row>
-    <row r="62" spans="1:31" ht="31.5">
+    <row r="62" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" s="62"/>
       <c r="C62" s="61" t="s">
@@ -3704,7 +3719,7 @@
       </c>
       <c r="P62" s="69"/>
     </row>
-    <row r="63" spans="1:31" ht="31.5">
+    <row r="63" spans="1:31" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A63" s="48"/>
       <c r="B63" s="63"/>
       <c r="C63" s="91" t="s">
@@ -3729,7 +3744,7 @@
       <c r="O63" s="94"/>
       <c r="P63" s="94"/>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="48"/>
       <c r="B64" s="95" t="s">
         <v>53</v>
@@ -3764,7 +3779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="80"/>
       <c r="B65" s="81"/>
       <c r="C65" s="82" t="s">
@@ -3795,7 +3810,7 @@
       </c>
       <c r="P65" s="88"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="80"/>
       <c r="B66" s="117"/>
       <c r="C66" s="118" t="s">
@@ -3826,7 +3841,7 @@
       </c>
       <c r="P66" s="69"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="103"/>
       <c r="B67" s="63"/>
       <c r="C67" s="91" t="s">
@@ -3857,7 +3872,7 @@
       </c>
       <c r="P67" s="94"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="70" t="s">
         <v>98</v>
       </c>
@@ -3897,7 +3912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="108" customFormat="1">
+    <row r="69" spans="1:16" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="70"/>
       <c r="B69" s="74"/>
       <c r="C69" s="35" t="s">
@@ -3929,7 +3944,7 @@
       </c>
       <c r="P69" s="76"/>
     </row>
-    <row r="70" spans="1:16" s="8" customFormat="1">
+    <row r="70" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="70"/>
       <c r="B70" s="29" t="s">
         <v>49</v>
@@ -3945,7 +3960,7 @@
       <c r="H70" s="68"/>
       <c r="I70" s="72">
         <f>SUM(H71:H77)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -3956,7 +3971,7 @@
       </c>
       <c r="N70" s="113">
         <f>SUM(N71:N77)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O70" s="113">
         <f>SUM(O71:O77)</f>
@@ -3964,10 +3979,10 @@
       </c>
       <c r="P70" s="111">
         <f>M70+N70+O70</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" s="8" customFormat="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="70"/>
       <c r="B71" s="74"/>
       <c r="C71" s="35" t="s">
@@ -3982,7 +3997,7 @@
       </c>
       <c r="G71" s="75"/>
       <c r="H71" s="134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="75"/>
       <c r="J71" s="4"/>
@@ -3992,14 +4007,14 @@
         <v>0</v>
       </c>
       <c r="N71" s="76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" s="76">
         <v>0</v>
       </c>
       <c r="P71" s="76"/>
     </row>
-    <row r="72" spans="1:16" s="8" customFormat="1" ht="31.5">
+    <row r="72" spans="1:16" s="8" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A72" s="70"/>
       <c r="B72" s="74"/>
       <c r="C72" s="35" t="s">
@@ -4027,7 +4042,7 @@
       <c r="O72" s="76"/>
       <c r="P72" s="76"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="70"/>
       <c r="B73" s="74"/>
       <c r="C73" s="35" t="s">
@@ -4052,7 +4067,7 @@
       <c r="O73" s="76"/>
       <c r="P73" s="76"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="70"/>
       <c r="B74" s="74"/>
       <c r="C74" s="35" t="s">
@@ -4079,7 +4094,7 @@
       <c r="O74" s="76"/>
       <c r="P74" s="76"/>
     </row>
-    <row r="75" spans="1:16" ht="31.5">
+    <row r="75" spans="1:16" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A75" s="70"/>
       <c r="B75" s="74"/>
       <c r="C75" s="35" t="s">
@@ -4106,7 +4121,7 @@
       <c r="O75" s="76"/>
       <c r="P75" s="76"/>
     </row>
-    <row r="76" spans="1:16" ht="31.5">
+    <row r="76" spans="1:16" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A76" s="70"/>
       <c r="B76" s="74"/>
       <c r="C76" s="35" t="s">
@@ -4131,7 +4146,7 @@
       </c>
       <c r="P76" s="76"/>
     </row>
-    <row r="77" spans="1:16" ht="31.5">
+    <row r="77" spans="1:16" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A77" s="70"/>
       <c r="B77" s="74"/>
       <c r="C77" s="35" t="s">
@@ -4156,7 +4171,7 @@
       </c>
       <c r="P77" s="76"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="70"/>
       <c r="B78" s="29" t="s">
         <v>53</v>
@@ -4180,7 +4195,7 @@
       </c>
       <c r="N78" s="113">
         <f>SUM(N79:N81)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O78" s="113">
         <f>SUM(O79:O81)</f>
@@ -4188,10 +4203,10 @@
       </c>
       <c r="P78" s="111">
         <f>M78+N78+O78</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="70"/>
       <c r="B79" s="74"/>
       <c r="C79" s="35" t="s">
@@ -4218,7 +4233,7 @@
       </c>
       <c r="P79" s="76"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="70"/>
       <c r="B80" s="74"/>
       <c r="C80" s="35" t="s">
@@ -4247,7 +4262,7 @@
       </c>
       <c r="P80" s="76"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="70"/>
       <c r="B81" s="77"/>
       <c r="C81" s="43" t="s">
@@ -4271,14 +4286,14 @@
         <v>2</v>
       </c>
       <c r="N81" s="79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O81" s="79">
         <v>1</v>
       </c>
       <c r="P81" s="79"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>105</v>
       </c>
@@ -4290,12 +4305,12 @@
       <c r="E82" s="51"/>
       <c r="F82" s="52"/>
       <c r="G82" s="72">
-        <f>SUM(F83:F87)</f>
+        <f>SUM(F83:F83)</f>
         <v>0</v>
       </c>
       <c r="H82" s="129"/>
       <c r="I82" s="72">
-        <f>SUM(H83:H87)</f>
+        <f>SUM(H83:H83)</f>
         <v>0</v>
       </c>
       <c r="J82" s="5"/>
@@ -4306,7 +4321,7 @@
       <c r="O82" s="73"/>
       <c r="P82" s="73"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="80"/>
       <c r="B83" s="81"/>
       <c r="C83" s="82"/>
@@ -4321,37 +4336,45 @@
       <c r="O83" s="88"/>
       <c r="P83" s="88"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="48"/>
-      <c r="B84" s="62"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="55"/>
-      <c r="E84" s="116"/>
-      <c r="F84" s="89"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="89"/>
-      <c r="I84" s="58"/>
-      <c r="M84" s="69"/>
-      <c r="N84" s="69"/>
-      <c r="O84" s="69"/>
-      <c r="P84" s="69"/>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="B84" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="71"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="72">
+        <f>SUM(F85:F91)</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="68"/>
+      <c r="I84" s="72">
+        <f>SUM(H85:H91)</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="73"/>
+      <c r="N84" s="73"/>
+      <c r="O84" s="73"/>
+      <c r="P84" s="73"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="48"/>
       <c r="B85" s="62"/>
       <c r="C85" s="61"/>
       <c r="D85" s="55"/>
       <c r="E85" s="90"/>
       <c r="F85" s="89"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="89"/>
-      <c r="I85" s="58"/>
+      <c r="G85" s="87"/>
+      <c r="H85" s="127"/>
+      <c r="I85" s="87"/>
       <c r="M85" s="69"/>
       <c r="N85" s="69"/>
       <c r="O85" s="69"/>
       <c r="P85" s="69"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="48"/>
       <c r="B86" s="62"/>
       <c r="C86" s="61"/>
@@ -4359,67 +4382,59 @@
       <c r="E86" s="90"/>
       <c r="F86" s="89"/>
       <c r="G86" s="58"/>
-      <c r="H86" s="89"/>
+      <c r="H86" s="127"/>
       <c r="I86" s="58"/>
       <c r="M86" s="69"/>
       <c r="N86" s="69"/>
       <c r="O86" s="69"/>
       <c r="P86" s="69"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="48"/>
-      <c r="B87" s="63"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="93"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="93"/>
-      <c r="I87" s="65"/>
-      <c r="M87" s="94"/>
-      <c r="N87" s="94"/>
-      <c r="O87" s="94"/>
-      <c r="P87" s="94"/>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="B87" s="62"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="90"/>
+      <c r="F87" s="89"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="127"/>
+      <c r="I87" s="58"/>
+      <c r="M87" s="69"/>
+      <c r="N87" s="69"/>
+      <c r="O87" s="69"/>
+      <c r="P87" s="69"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="48"/>
-      <c r="B88" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C88" s="71"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="51"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="72">
-        <f>SUM(F89:F95)</f>
-        <v>0</v>
-      </c>
-      <c r="H88" s="68"/>
-      <c r="I88" s="72">
-        <f>SUM(H89:H95)</f>
-        <v>0</v>
-      </c>
-      <c r="M88" s="73"/>
-      <c r="N88" s="73"/>
-      <c r="O88" s="73"/>
-      <c r="P88" s="73"/>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="B88" s="62"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="90"/>
+      <c r="F88" s="89"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="127"/>
+      <c r="I88" s="58"/>
+      <c r="M88" s="69"/>
+      <c r="N88" s="69"/>
+      <c r="O88" s="69"/>
+      <c r="P88" s="69"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="48"/>
       <c r="B89" s="62"/>
       <c r="C89" s="61"/>
       <c r="D89" s="55"/>
       <c r="E89" s="90"/>
       <c r="F89" s="89"/>
-      <c r="G89" s="87"/>
+      <c r="G89" s="58"/>
       <c r="H89" s="127"/>
-      <c r="I89" s="87"/>
+      <c r="I89" s="58"/>
       <c r="M89" s="69"/>
       <c r="N89" s="69"/>
       <c r="O89" s="69"/>
       <c r="P89" s="69"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="48"/>
       <c r="B90" s="62"/>
       <c r="C90" s="61"/>
@@ -4434,157 +4449,136 @@
       <c r="O90" s="69"/>
       <c r="P90" s="69"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="48"/>
-      <c r="B91" s="62"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="90"/>
-      <c r="F91" s="89"/>
-      <c r="G91" s="58"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="91"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="93"/>
+      <c r="G91" s="65"/>
       <c r="H91" s="127"/>
-      <c r="I91" s="58"/>
-      <c r="M91" s="69"/>
-      <c r="N91" s="69"/>
-      <c r="O91" s="69"/>
-      <c r="P91" s="69"/>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="I91" s="65"/>
+      <c r="M91" s="94"/>
+      <c r="N91" s="94"/>
+      <c r="O91" s="94"/>
+      <c r="P91" s="94"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="48"/>
-      <c r="B92" s="62"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="90"/>
-      <c r="F92" s="89"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="127"/>
-      <c r="I92" s="58"/>
-      <c r="M92" s="69"/>
-      <c r="N92" s="69"/>
-      <c r="O92" s="69"/>
-      <c r="P92" s="69"/>
-    </row>
-    <row r="93" spans="1:16">
-      <c r="A93" s="48"/>
-      <c r="B93" s="62"/>
-      <c r="C93" s="61"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="90"/>
-      <c r="F93" s="89"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="127"/>
-      <c r="I93" s="58"/>
-      <c r="M93" s="69"/>
-      <c r="N93" s="69"/>
-      <c r="O93" s="69"/>
-      <c r="P93" s="69"/>
-    </row>
-    <row r="94" spans="1:16">
-      <c r="A94" s="48"/>
-      <c r="B94" s="62"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="90"/>
-      <c r="F94" s="89"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="127"/>
+      <c r="B92" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="96"/>
+      <c r="D92" s="97"/>
+      <c r="E92" s="98"/>
+      <c r="F92" s="99"/>
+      <c r="G92" s="100">
+        <f>SUM(F93:F93)</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="68"/>
+      <c r="I92" s="72"/>
+      <c r="M92" s="101"/>
+      <c r="N92" s="101"/>
+      <c r="O92" s="101"/>
+      <c r="P92" s="101"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="80"/>
+      <c r="B93" s="81"/>
+      <c r="C93" s="82"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="122"/>
+      <c r="F93" s="102"/>
+      <c r="G93" s="86"/>
+      <c r="H93" s="102"/>
+      <c r="I93" s="87"/>
+      <c r="M93" s="88"/>
+      <c r="N93" s="88"/>
+      <c r="O93" s="88"/>
+      <c r="P93" s="88"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="135"/>
+      <c r="B94" s="117"/>
+      <c r="C94" s="118"/>
+      <c r="D94" s="119"/>
+      <c r="E94" s="136"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="121"/>
+      <c r="H94" s="57"/>
       <c r="I94" s="58"/>
+      <c r="J94" s="137"/>
+      <c r="K94" s="137"/>
+      <c r="L94" s="137"/>
       <c r="M94" s="69"/>
       <c r="N94" s="69"/>
       <c r="O94" s="69"/>
       <c r="P94" s="69"/>
     </row>
-    <row r="95" spans="1:16">
-      <c r="A95" s="48"/>
-      <c r="B95" s="63"/>
-      <c r="C95" s="91"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="93"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="127"/>
-      <c r="I95" s="65"/>
-      <c r="M95" s="94"/>
-      <c r="N95" s="94"/>
-      <c r="O95" s="94"/>
-      <c r="P95" s="94"/>
-    </row>
-    <row r="96" spans="1:16">
-      <c r="A96" s="48"/>
-      <c r="B96" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="C96" s="96"/>
-      <c r="D96" s="97"/>
-      <c r="E96" s="98"/>
-      <c r="F96" s="99"/>
-      <c r="G96" s="100">
-        <f>SUM(F97:F97)</f>
-        <v>0</v>
-      </c>
-      <c r="H96" s="68"/>
-      <c r="I96" s="72"/>
-      <c r="M96" s="101"/>
-      <c r="N96" s="101"/>
-      <c r="O96" s="101"/>
-      <c r="P96" s="101"/>
-    </row>
-    <row r="97" spans="1:16">
-      <c r="A97" s="80"/>
-      <c r="B97" s="81"/>
-      <c r="C97" s="82"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="122"/>
-      <c r="F97" s="102"/>
-      <c r="G97" s="86"/>
-      <c r="H97" s="102"/>
-      <c r="I97" s="87"/>
-      <c r="M97" s="88"/>
-      <c r="N97" s="88"/>
-      <c r="O97" s="88"/>
-      <c r="P97" s="88"/>
-    </row>
-    <row r="98" spans="1:16">
-      <c r="A98" s="104" t="s">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="135"/>
+      <c r="B95" s="117"/>
+      <c r="C95" s="118"/>
+      <c r="D95" s="119"/>
+      <c r="E95" s="136"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="121"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="58"/>
+      <c r="M95" s="69"/>
+      <c r="N95" s="69"/>
+      <c r="O95" s="69"/>
+      <c r="P95" s="69"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="135"/>
+      <c r="B96" s="104"/>
+      <c r="C96" s="105"/>
+      <c r="D96" s="105"/>
+      <c r="E96" s="106"/>
+      <c r="F96" s="107">
+        <f>SUM(F5:F95)</f>
+        <v>260</v>
+      </c>
+      <c r="G96" s="107"/>
+      <c r="H96" s="107">
+        <f>SUM(H5:H95)</f>
+        <v>224</v>
+      </c>
+      <c r="I96" s="107">
+        <f>SUM(I5:I95)</f>
+        <v>224</v>
+      </c>
+      <c r="J96" s="108"/>
+      <c r="K96" s="108"/>
+      <c r="L96" s="108"/>
+      <c r="M96" s="109">
+        <f>SUM(M6+M8+M12+M20+M27+M31+M34+M38+M46+M50+M56+M64+M68+M70+M78+M82)</f>
+        <v>75.5</v>
+      </c>
+      <c r="N96" s="109">
+        <f t="shared" ref="N96:P96" si="4">SUM(N6+N8+N12+N20+N27+N31+N34+N38+N46+N50+N56+N64+N68+N70+N78+N82)</f>
+        <v>75</v>
+      </c>
+      <c r="O96" s="109">
+        <f t="shared" si="4"/>
+        <v>73.5</v>
+      </c>
+      <c r="P96" s="109">
+        <f t="shared" si="4"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="104" t="s">
         <v>5</v>
-      </c>
-      <c r="B98" s="104"/>
-      <c r="C98" s="105"/>
-      <c r="D98" s="105"/>
-      <c r="E98" s="106"/>
-      <c r="F98" s="107">
-        <f>SUM(F5:F97)</f>
-        <v>260</v>
-      </c>
-      <c r="G98" s="107"/>
-      <c r="H98" s="107">
-        <f>SUM(H5:H97)</f>
-        <v>219</v>
-      </c>
-      <c r="I98" s="107"/>
-      <c r="J98" s="108"/>
-      <c r="K98" s="108"/>
-      <c r="L98" s="108"/>
-      <c r="M98" s="109">
-        <f t="shared" ref="M98:O98" si="4">SUM(M6+M8+M12+M20+M27+M31+M34+M38+M46+M50+M56+M64)</f>
-        <v>61.5</v>
-      </c>
-      <c r="N98" s="109">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="O98" s="109">
-        <f t="shared" si="4"/>
-        <v>60.5</v>
-      </c>
-      <c r="P98" s="109">
-        <f>SUM(P6+P8+P12+P20+P27+P31+P34+P38+P46+P50+P56+P64)</f>
-        <v>182</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <conditionalFormatting sqref="I5:I26 H51:I51 H57 I28:I81 M5:P81 M98:P98">
+  <conditionalFormatting sqref="I5:I26 H51:I51 H57 I28:I81 I84:I95 M5:P96">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4594,7 +4588,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83:I83 I82 M82:P97 I84:I97 H89:H95">
+  <conditionalFormatting sqref="H83:I83 I82 H85:H91">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
